--- a/src/test/java/com/oner365/test/util/excel/testecxel.xlsx
+++ b/src/test/java/com/oner365/test/util/excel/testecxel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoliu/gitee/oner365-springboot/src/test/java/com/oner365/test/util/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9DBFA-AD45-3440-94E8-255270245BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641BF68-D312-5345-872E-CAC0629AD83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1820" windowWidth="27440" windowHeight="16440" xr2:uid="{93508C12-7EC0-9C46-A7EA-2968F9F44BD6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>资产编号</t>
   </si>
@@ -522,13 +522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A75313-6BE4-3442-8871-A4CD83CA42E8}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -590,6 +593,24 @@
         <v>15</v>
       </c>
       <c r="F3">
+        <v>13911366139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32">
+      <c r="A4" s="3">
+        <v>711107007621</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>13911366139</v>
       </c>
     </row>
